--- a/Tables/t5_robust_diff.xlsx
+++ b/Tables/t5_robust_diff.xlsx
@@ -21,10 +21,19 @@
     <t>Outcome</t>
   </si>
   <si>
+    <t>Male condom attitudes index</t>
+  </si>
+  <si>
     <t>Used male condom at most recent sex (0/1)</t>
   </si>
   <si>
-    <t>Male condom attitudes index</t>
+    <t>Contraceptive knowledge index</t>
+  </si>
+  <si>
+    <t>Modern contraceptive methods known (n)</t>
+  </si>
+  <si>
+    <t>Discussed contraceptive use with recent partner (0/1)</t>
   </si>
   <si>
     <t>Can identify a female condom (0/1)</t>
@@ -45,25 +54,25 @@
     <t>Used a female condom at most recent sex (0/1)</t>
   </si>
   <si>
-    <t>Contraceptive knowledge index</t>
-  </si>
-  <si>
-    <t>Modern contraceptive methods known (n)</t>
-  </si>
-  <si>
-    <t>Discussed contraceptive use with recent partner (0/1)</t>
-  </si>
-  <si>
     <t>OLS, Clustered SEs</t>
   </si>
   <si>
     <t>RD</t>
   </si>
   <si>
+    <t>0.011</t>
+  </si>
+  <si>
     <t>-0.002</t>
   </si>
   <si>
-    <t>0.011</t>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>-0.020</t>
+  </si>
+  <si>
+    <t>-0.012</t>
   </si>
   <si>
     <t>0.048+</t>
@@ -84,22 +93,22 @@
     <t>0.005</t>
   </si>
   <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>-0.020</t>
-  </si>
-  <si>
-    <t>-0.012</t>
-  </si>
-  <si>
     <t>95% CI</t>
   </si>
   <si>
+    <t>(-0.103, 0.125)</t>
+  </si>
+  <si>
     <t>(-0.046, 0.041)</t>
   </si>
   <si>
-    <t>(-0.103, 0.125)</t>
+    <t>(-0.068, 0.125)</t>
+  </si>
+  <si>
+    <t>(-0.327, 0.287)</t>
+  </si>
+  <si>
+    <t>(-0.065, 0.040)</t>
   </si>
   <si>
     <t>(0.001, 0.096)</t>
@@ -120,21 +129,21 @@
     <t>(-0.003, 0.012)</t>
   </si>
   <si>
-    <t>(-0.068, 0.125)</t>
-  </si>
-  <si>
-    <t>(-0.327, 0.287)</t>
-  </si>
-  <si>
-    <t>(-0.065, 0.040)</t>
-  </si>
-  <si>
     <t>OLS, Pooled</t>
   </si>
   <si>
     <t>0.014</t>
   </si>
   <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>-0.040</t>
+  </si>
+  <si>
+    <t>-0.021</t>
+  </si>
+  <si>
     <t>0.057+</t>
   </si>
   <si>
@@ -147,19 +156,19 @@
     <t>0.006</t>
   </si>
   <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>-0.040</t>
-  </si>
-  <si>
-    <t>-0.021</t>
+    <t>(-0.101, 0.130)</t>
   </si>
   <si>
     <t>(-0.047, 0.036)</t>
   </si>
   <si>
-    <t>(-0.101, 0.130)</t>
+    <t>(-0.061, 0.179)</t>
+  </si>
+  <si>
+    <t>(-0.386, 0.305)</t>
+  </si>
+  <si>
+    <t>(-0.078, 0.035)</t>
   </si>
   <si>
     <t>(0.001, 0.112)</t>
@@ -180,31 +189,31 @@
     <t>(-0.003, 0.015)</t>
   </si>
   <si>
-    <t>(-0.061, 0.179)</t>
-  </si>
-  <si>
-    <t>(-0.386, 0.305)</t>
-  </si>
-  <si>
-    <t>(-0.078, 0.035)</t>
-  </si>
-  <si>
     <t>GEE</t>
   </si>
   <si>
+    <t>-0.015</t>
+  </si>
+  <si>
+    <t>-0.011</t>
+  </si>
+  <si>
     <t>0.002</t>
   </si>
   <si>
-    <t>-0.015</t>
-  </si>
-  <si>
-    <t>-0.011</t>
+    <t>(-0.097, 0.119)</t>
   </si>
   <si>
     <t>(-0.044, 0.040)</t>
   </si>
   <si>
-    <t>(-0.097, 0.119)</t>
+    <t>(-0.071, 0.129)</t>
+  </si>
+  <si>
+    <t>(-0.306, 0.276)</t>
+  </si>
+  <si>
+    <t>(-0.064, 0.042)</t>
   </si>
   <si>
     <t>(-0.003, 0.099)</t>
@@ -225,25 +234,22 @@
     <t>(-0.002, 0.012)</t>
   </si>
   <si>
-    <t>(-0.071, 0.129)</t>
-  </si>
-  <si>
-    <t>(-0.306, 0.276)</t>
-  </si>
-  <si>
-    <t>(-0.064, 0.042)</t>
-  </si>
-  <si>
     <t>HLM, Ward Intercepts</t>
   </si>
   <si>
     <t>0.003</t>
   </si>
   <si>
+    <t>(-0.099, 0.120)</t>
+  </si>
+  <si>
     <t>(-0.044, 0.039)</t>
   </si>
   <si>
-    <t>(-0.099, 0.120)</t>
+    <t>(-0.072, 0.129)</t>
+  </si>
+  <si>
+    <t>(-0.307, 0.277)</t>
   </si>
   <si>
     <t>(-0.104, 0.109)</t>
@@ -253,12 +259,6 @@
   </si>
   <si>
     <t>(-0.006, 0.020)</t>
-  </si>
-  <si>
-    <t>(-0.072, 0.129)</t>
-  </si>
-  <si>
-    <t>(-0.307, 0.277)</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -403,7 +403,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>48</v>
@@ -447,7 +447,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -461,22 +461,22 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -490,22 +490,22 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +519,7 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>52</v>
@@ -534,7 +534,7 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -548,7 +548,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
@@ -563,7 +563,7 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -577,22 +577,22 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
         <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -606,7 +606,7 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
@@ -635,19 +635,19 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>81</v>
@@ -670,16 +670,16 @@
         <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
